--- a/public/cohort/fileExcel/xlsxUIT/OPEN/GDL_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/GDL_OPEN.xlsx
@@ -10,15 +10,13 @@
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
     <sheet name="instructie" sheetId="2" r:id="rId5"/>
-    <sheet name="M 2020" sheetId="3" r:id="rId6"/>
-    <sheet name="M 2019" sheetId="4" r:id="rId7"/>
-    <sheet name="H 2021" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2020" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2019" sheetId="7" r:id="rId10"/>
-    <sheet name="A 2021" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2020" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2019" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2018" sheetId="11" r:id="rId14"/>
+    <sheet name="H 2021" sheetId="3" r:id="rId6"/>
+    <sheet name="H 2020" sheetId="4" r:id="rId7"/>
+    <sheet name="H 2019" sheetId="5" r:id="rId8"/>
+    <sheet name="A 2021" sheetId="6" r:id="rId9"/>
+    <sheet name="A 2020" sheetId="7" r:id="rId10"/>
+    <sheet name="A 2019" sheetId="8" r:id="rId11"/>
+    <sheet name="A 2018" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -884,16 +882,28 @@
     <t>niveau</t>
   </si>
   <si>
-    <t>M</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Maakbaarheid van het leven gerelateerd aan de wereldreligies.</t>
   </si>
   <si>
     <t>startJaar</t>
   </si>
   <si>
+    <t>Keuzeonderwerp; presentaties van keuzeonderwerpen waarbij ethische dilemma's centraal staan.</t>
+  </si>
+  <si>
     <t>cid</t>
   </si>
   <si>
+    <t>Project orgaandonatie</t>
+  </si>
+  <si>
     <t>eindJaar</t>
+  </si>
+  <si>
+    <t>Virtuele wereldreis langs verschillende plaatsen waar steeds een andere levensbeschouwing dominant is.</t>
   </si>
   <si>
     <t>vandaag</t>
@@ -911,31 +921,31 @@
     <t>groep</t>
   </si>
   <si>
+    <t>Zie vakwerkplan voor de leerlingcompetenties en vaardigheden.</t>
+  </si>
+  <si>
     <t>mavo?</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Maakbaarheid van het leven gerelateerd aan de wereldreligies.</t>
-  </si>
-  <si>
-    <t>Keuzeonderwerp; presentaties van keuzeonderwerpen waarbij ethische dilemma's centraal staan.</t>
-  </si>
-  <si>
-    <t>Project orgaandonatie</t>
-  </si>
-  <si>
-    <t>Virtuele wereldreis langs verschillende plaatsen waar steeds een andere levensbeschouwing dominant is.</t>
+    <t>kies...</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Project orgaandonatie. Verslaglegging en presentatie.</t>
+    <t>Het po bestaat uit een aantal deelopdrachten die tezamen het cijfer vormen.</t>
   </si>
   <si>
     <t>Agressie: sterk en zwak, verdedigen of aanvallen, van kwaad tot erger, godsdienstige conflicten en terreur.</t>
+  </si>
+  <si>
+    <t>Er is meer: over waken en dromen, drank en drugs, controle en verslaving, engelen, kunst, muziek en mystiek.</t>
+  </si>
+  <si>
+    <t>Wat is waarheid? Over waarneming en ervaring, halve waarheden en hele leugens, rechtspraak, wetenschap en geloof.</t>
+  </si>
+  <si>
+    <t>Project orgaandonatie. Verslaglegging en presentatie.</t>
   </si>
   <si>
     <t>Wat is waarheid? Verslaglegging en presentatie</t>
@@ -944,16 +954,25 @@
     <t>Eigen religie ontwerpen aan de hand van de zeven dimensies van Ninian Smart; werk deze uit in een verslag en presenteer deze aan de klas.  Je werkt in tweetallen.</t>
   </si>
   <si>
-    <t>Zie vakwerkplan voor de leerlingcompetenties en vaardigheden.</t>
+    <t>PO bestaat uit een verslag en een presentatie. weging: verslag 2, presentatie 1.</t>
   </si>
   <si>
     <t>Vrijheid: over regels en ongebondenheid, privacy en veiligheid, verlossing, kiezen en verantwoordelijkheid.</t>
   </si>
   <si>
+    <t>Het PO bestaat uit een aantal deelopdrachten die tezamen het cijfer vormen.</t>
+  </si>
+  <si>
     <t>Onderzoeksverslag schrijven aan de hand van hoofd en deelvragen</t>
   </si>
   <si>
+    <t>Het PO bestaat uit het onderzoeksverslag.</t>
+  </si>
+  <si>
     <t>Presentatie: een virtuele wereldreis langs verschillende levensbeschouwelijke stromingen.</t>
+  </si>
+  <si>
+    <t>PO bestaat uit een presentatie.</t>
   </si>
 </sst>
 </file>
@@ -1953,4514 +1972,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AF38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="42"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="43">
-        <f>SUM(AF6:AF35)</f>
-        <v>8</v>
-      </c>
-      <c r="G2" s="49" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GDL leerlaag A4 (schooljaar 2019 - 2020)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="7" t="str">
-        <f>G5</f>
-        <v>periode</v>
-      </c>
-      <c r="S5" s="7" t="str">
-        <f>I5</f>
-        <v>weging VD</v>
-      </c>
-      <c r="T5" s="7" t="str">
-        <f>J5</f>
-        <v>soort toets</v>
-      </c>
-      <c r="U5" s="7" t="str">
-        <f>J5</f>
-        <v>soort toets</v>
-      </c>
-      <c r="V5" s="7" t="str">
-        <f>L5</f>
-        <v>duur (min)</v>
-      </c>
-      <c r="W5" s="7" t="str">
-        <f>M5</f>
-        <v>SE?</v>
-      </c>
-      <c r="X5" s="7" t="str">
-        <f>M5</f>
-        <v>SE?</v>
-      </c>
-      <c r="Y5" s="7" t="str">
-        <f>N5</f>
-        <v>weging SE</v>
-      </c>
-      <c r="Z5" s="7" t="str">
-        <f>N5</f>
-        <v>weging SE</v>
-      </c>
-      <c r="AA5" s="7" t="str">
-        <f>O5</f>
-        <v>herkans-baar?</v>
-      </c>
-      <c r="AB5" s="7" t="str">
-        <f>O5</f>
-        <v>herkans-baar?</v>
-      </c>
-      <c r="AC5" s="7" t="str">
-        <f>O5</f>
-        <v>herkans-baar?</v>
-      </c>
-      <c r="AD5" s="7" t="str">
-        <f>P5</f>
-        <v>verplichte SE-domeinen</v>
-      </c>
-      <c r="AE5" s="7" t="str">
-        <f>P5</f>
-        <v>verplichte SE-domeinen</v>
-      </c>
-      <c r="AF5" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
-      <c r="R6" s="7">
-        <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <f>IF(AND(ISBLANK($I18),AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2),AND(ISBLANK($N18))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <f>IF(ISBLANK($J6),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <f>IF(AND($J6=instellingen!$H$2,AND($H6&lt;&gt;"",$G6&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <f>IF(OR(AND($L6&lt;&gt;"",OR($J6=instellingen!$H$5,$J6=instellingen!$H$6,,$J6=instellingen!$H$7)),AND(ISBLANK($L6),OR($J6=instellingen!$H$3,$J6=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <f>IF(ISBLANK($M6),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <f>IF(AND($M6=instellingen!$I$2,AND($H6&lt;&gt;"",$G6&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7">
-        <f>IF(AND($N6&lt;&gt;"",OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7">
-        <f>IF(AND(ISBLANK($N6),$M6=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <f>IF(ISBLANK($O6),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
-        <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7">
-        <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
-        <f>IF(AND($P6&lt;&gt;"",OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="7">
-        <f>IF(AND(ISBLANK($P6),$M6=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="8">
-        <f>SUM(R6:AE6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
-      <c r="R7" s="7">
-        <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <f>IF(AND(ISBLANK($I19),AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2),AND(ISBLANK($N19))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <f>IF(ISBLANK($J7),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <f>IF(AND($J7=instellingen!$H$2,AND($H7&lt;&gt;"",$G7&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <f>IF(OR(AND($L7&lt;&gt;"",OR($J7=instellingen!$H$5,$J7=instellingen!$H$6,,$J7=instellingen!$H$7)),AND(ISBLANK($L7),OR($J7=instellingen!$H$3,$J7=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <f>IF(ISBLANK($M7),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
-        <f>IF(AND($M7=instellingen!$I$2,AND($H7&lt;&gt;"",$G7&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7">
-        <f>IF(AND($N7&lt;&gt;"",OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
-        <f>IF(AND(ISBLANK($N7),$M7=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <f>IF(ISBLANK($O7),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
-        <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7">
-        <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="7">
-        <f>IF(AND($P7&lt;&gt;"",OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7">
-        <f>IF(AND(ISBLANK($P7),$M7=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="8">
-        <f>SUM(R7:AE7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="2">
-        <v>167</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
-      <c r="R8" s="7">
-        <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <f>IF(AND(ISBLANK($I20),AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2),AND(ISBLANK($N20))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <f>IF(ISBLANK($J8),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <f>IF(AND($J8=instellingen!$H$2,AND($H8&lt;&gt;"",$G8&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <f>IF(OR(AND($L8&lt;&gt;"",OR($J8=instellingen!$H$5,$J8=instellingen!$H$6,,$J8=instellingen!$H$7)),AND(ISBLANK($L8),OR($J8=instellingen!$H$3,$J8=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <f>IF(ISBLANK($M8),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <f>IF(AND($M8=instellingen!$I$2,AND($H8&lt;&gt;"",$G8&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7">
-        <f>IF(AND($N8&lt;&gt;"",OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
-        <f>IF(AND(ISBLANK($N8),$M8=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
-        <f>IF(ISBLANK($O8),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7">
-        <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7">
-        <f>IF(AND($P8&lt;&gt;"",OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="7">
-        <f>IF(AND(ISBLANK($P8),$M8=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="8">
-        <f>SUM(R8:AE8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
-      <c r="R9" s="7">
-        <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <f>IF(AND(ISBLANK($I21),AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2),AND(ISBLANK($N21))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <f>IF(ISBLANK($J9),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <f>IF(AND($J9=instellingen!$H$2,AND($H9&lt;&gt;"",$G9&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="7">
-        <f>IF(OR(AND($L9&lt;&gt;"",OR($J9=instellingen!$H$5,$J9=instellingen!$H$6,,$J9=instellingen!$H$7)),AND(ISBLANK($L9),OR($J9=instellingen!$H$3,$J9=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
-        <f>IF(ISBLANK($M9),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="7">
-        <f>IF(AND($M9=instellingen!$I$2,AND($H9&lt;&gt;"",$G9&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7">
-        <f>IF(AND($N9&lt;&gt;"",OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7">
-        <f>IF(AND(ISBLANK($N9),$M9=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
-        <f>IF(ISBLANK($O9),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
-        <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <f>IF(AND($P9&lt;&gt;"",OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="7">
-        <f>IF(AND(ISBLANK($P9),$M9=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="8">
-        <f>SUM(R9:AE9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44379.602256944</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
-      <c r="R10" s="7">
-        <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
-        <f>IF(AND(ISBLANK($I22),AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2),AND(ISBLANK($N22))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <f>IF(ISBLANK($J10),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <f>IF(AND($J10=instellingen!$H$2,AND($H10&lt;&gt;"",$G10&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <f>IF(OR(AND($L10&lt;&gt;"",OR($J10=instellingen!$H$5,$J10=instellingen!$H$6,,$J10=instellingen!$H$7)),AND(ISBLANK($L10),OR($J10=instellingen!$H$3,$J10=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <f>IF(ISBLANK($M10),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
-        <f>IF(AND($M10=instellingen!$I$2,AND($H10&lt;&gt;"",$G10&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7">
-        <f>IF(AND($N10&lt;&gt;"",OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="7">
-        <f>IF(AND(ISBLANK($N10),$M10=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
-        <f>IF(ISBLANK($O10),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
-        <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
-        <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7">
-        <f>IF(AND($P10&lt;&gt;"",OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="7">
-        <f>IF(AND(ISBLANK($P10),$M10=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="8">
-        <f>SUM(R10:AE10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="46"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
-      <c r="R11" s="7">
-        <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <f>IF(AND(ISBLANK($I23),AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2),AND(ISBLANK($N23))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <f>IF(ISBLANK($J11),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <f>IF(AND($J11=instellingen!$H$2,AND($H11&lt;&gt;"",$G11&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="7">
-        <f>IF(OR(AND($L11&lt;&gt;"",OR($J11=instellingen!$H$5,$J11=instellingen!$H$6,,$J11=instellingen!$H$7)),AND(ISBLANK($L11),OR($J11=instellingen!$H$3,$J11=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
-        <f>IF(ISBLANK($M11),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="7">
-        <f>IF(AND($M11=instellingen!$I$2,AND($H11&lt;&gt;"",$G11&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="7">
-        <f>IF(AND($N11&lt;&gt;"",OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="7">
-        <f>IF(AND(ISBLANK($N11),$M11=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="7">
-        <f>IF(ISBLANK($O11),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="7">
-        <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="7">
-        <f>IF(AND($P11&lt;&gt;"",OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="7">
-        <f>IF(AND(ISBLANK($P11),$M11=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="8">
-        <f>SUM(R11:AE11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>-1</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2">
-        <v>415</v>
-      </c>
-      <c r="G13" s="47" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A4 (schooljaar 2019 - 2020)</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-    </row>
-    <row r="14" spans="1:32" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="7">
-        <f>B15+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="7">
-        <f>IF(B6="M",3,4)</f>
-        <v>4</v>
-      </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-    </row>
-    <row r="16" spans="1:32" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GDL leerlaag A5 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-    </row>
-    <row r="17" spans="1:32" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-    </row>
-    <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>546</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="45">
-        <v>3</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="R18" s="7">
-        <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="7">
-        <f>IF(AND(ISBLANK($I30),AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2),AND(ISBLANK($N30))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="7">
-        <f>IF(ISBLANK($J18),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
-        <f>IF(AND($J18=instellingen!$H$2,AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
-        <f>IF(OR(AND($L18&lt;&gt;"",OR($J18=instellingen!$H$5,$J18=instellingen!$H$6,,$J18=instellingen!$H$7)),AND(ISBLANK($L18),OR($J18=instellingen!$H$3,$J18=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="7">
-        <f>IF(ISBLANK($M18),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="7">
-        <f>IF(AND($M18=instellingen!$I$2,AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="7">
-        <f>IF(AND($N18&lt;&gt;"",OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="7">
-        <f>IF(AND(ISBLANK($N18),$M18=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="7">
-        <f>IF(ISBLANK($O18),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="7">
-        <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AC18" s="7">
-        <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="7">
-        <f>IF(AND($P18&lt;&gt;"",OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AE18" s="7">
-        <f>IF(AND(ISBLANK($P18),$M18=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="8">
-        <f>SUM(R18:AE18)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>547</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="45">
-        <v>2</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="46"/>
-      <c r="O19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="R19" s="7">
-        <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <f>IF(AND(ISBLANK($I31),AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2),AND(ISBLANK($N31))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="7">
-        <f>IF(ISBLANK($J19),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <f>IF(AND($J19=instellingen!$H$2,AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <f>IF(OR(AND($L19&lt;&gt;"",OR($J19=instellingen!$H$5,$J19=instellingen!$H$6,,$J19=instellingen!$H$7)),AND(ISBLANK($L19),OR($J19=instellingen!$H$3,$J19=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <f>IF(ISBLANK($M19),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
-        <f>IF(AND($M19=instellingen!$I$2,AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="7">
-        <f>IF(AND($N19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="7">
-        <f>IF(AND(ISBLANK($N19),$M19=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7">
-        <f>IF(ISBLANK($O19),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="7">
-        <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AC19" s="7">
-        <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="7">
-        <f>IF(AND($P19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AE19" s="7">
-        <f>IF(AND(ISBLANK($P19),$M19=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="8">
-        <f>SUM(R19:AE19)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>548</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="45">
-        <v>2</v>
-      </c>
-      <c r="J20" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="N20" s="46"/>
-      <c r="O20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="R20" s="7">
-        <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="7">
-        <f>IF(AND(ISBLANK($I32),AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2),AND(ISBLANK($N32))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="7">
-        <f>IF(ISBLANK($J20),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="7">
-        <f>IF(AND($J20=instellingen!$H$2,AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="7">
-        <f>IF(OR(AND($L20&lt;&gt;"",OR($J20=instellingen!$H$5,$J20=instellingen!$H$6,,$J20=instellingen!$H$7)),AND(ISBLANK($L20),OR($J20=instellingen!$H$3,$J20=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="7">
-        <f>IF(ISBLANK($M20),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="7">
-        <f>IF(AND($M20=instellingen!$I$2,AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="7">
-        <f>IF(AND($N20&lt;&gt;"",OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="7">
-        <f>IF(AND(ISBLANK($N20),$M20=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="7">
-        <f>IF(ISBLANK($O20),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="7">
-        <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AC20" s="7">
-        <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="7">
-        <f>IF(AND($P20&lt;&gt;"",OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AE20" s="7">
-        <f>IF(AND(ISBLANK($P20),$M20=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="8">
-        <f>SUM(R20:AE20)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>549</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="45">
-        <v>1</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="46"/>
-      <c r="O21" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="R21" s="7">
-        <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
-        <f>IF(AND(ISBLANK($I33),AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2),AND(ISBLANK($N33))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="7">
-        <f>IF(ISBLANK($J21),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
-        <f>IF(AND($J21=instellingen!$H$2,AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="7">
-        <f>IF(OR(AND($L21&lt;&gt;"",OR($J21=instellingen!$H$5,$J21=instellingen!$H$6,,$J21=instellingen!$H$7)),AND(ISBLANK($L21),OR($J21=instellingen!$H$3,$J21=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="7">
-        <f>IF(ISBLANK($M21),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="7">
-        <f>IF(AND($M21=instellingen!$I$2,AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="7">
-        <f>IF(AND($N21&lt;&gt;"",OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="7">
-        <f>IF(AND(ISBLANK($N21),$M21=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="7">
-        <f>IF(ISBLANK($O21),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="7">
-        <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AC21" s="7">
-        <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="7">
-        <f>IF(AND($P21&lt;&gt;"",OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="AE21" s="7">
-        <f>IF(AND(ISBLANK($P21),$M21=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="8">
-        <f>SUM(R21:AE21)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="46"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-      <c r="R22" s="7">
-        <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="7">
-        <f>IF(AND(ISBLANK($I34),AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2),AND(ISBLANK($N34))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="7">
-        <f>IF(ISBLANK($J22),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="7">
-        <f>IF(AND($J22=instellingen!$H$2,AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
-        <f>IF(OR(AND($L22&lt;&gt;"",OR($J22=instellingen!$H$5,$J22=instellingen!$H$6,,$J22=instellingen!$H$7)),AND(ISBLANK($L22),OR($J22=instellingen!$H$3,$J22=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="7">
-        <f>IF(ISBLANK($M22),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="7">
-        <f>IF(AND($M22=instellingen!$I$2,AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="7">
-        <f>IF(AND($N22&lt;&gt;"",OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="7">
-        <f>IF(AND(ISBLANK($N22),$M22=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="7">
-        <f>IF(ISBLANK($O22),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="7">
-        <f>IF(AND(OR($O22=instellingen!$I$3,$O22=instellingen!$I$4),OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="7">
-        <f>IF(AND($O22=instellingen!$I$2,$M22=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="7">
-        <f>IF(AND($P22&lt;&gt;"",OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="7">
-        <f>IF(AND(ISBLANK($P22),$M22=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="8">
-        <f>SUM(R22:AE22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-      <c r="R23" s="7">
-        <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="7">
-        <f>IF(AND(ISBLANK($I35),AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2),AND(ISBLANK($N35))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="7">
-        <f>IF(ISBLANK($J23),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="7">
-        <f>IF(AND($J23=instellingen!$H$2,AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="7">
-        <f>IF(OR(AND($L23&lt;&gt;"",OR($J23=instellingen!$H$5,$J23=instellingen!$H$6,,$J23=instellingen!$H$7)),AND(ISBLANK($L23),OR($J23=instellingen!$H$3,$J23=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="7">
-        <f>IF(ISBLANK($M23),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="7">
-        <f>IF(AND($M23=instellingen!$I$2,AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="7">
-        <f>IF(AND($N23&lt;&gt;"",OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="7">
-        <f>IF(AND(ISBLANK($N23),$M23=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="7">
-        <f>IF(ISBLANK($O23),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="7">
-        <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="7">
-        <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="7">
-        <f>IF(AND($P23&lt;&gt;"",OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="7">
-        <f>IF(AND(ISBLANK($P23),$M23=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="8">
-        <f>SUM(R23:AE23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32">
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-    </row>
-    <row r="25" spans="1:32">
-      <c r="C25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="2">
-        <v>416</v>
-      </c>
-      <c r="G25" s="47" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A5 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-    </row>
-    <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-    </row>
-    <row r="27" spans="1:32">
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-    </row>
-    <row r="28" spans="1:32" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GDL leerlaag A6 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-    </row>
-    <row r="29" spans="1:32" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-    </row>
-    <row r="30" spans="1:32" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="46"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-      <c r="R30" s="7">
-        <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="7">
-        <f>IF(AND(ISBLANK($I42),AND($H42&lt;&gt;"",$G42&lt;&gt;instellingen!$G$2),AND(ISBLANK($N42))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="7">
-        <f>IF(ISBLANK($J30),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="7">
-        <f>IF(AND($J30=instellingen!$H$2,AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="7">
-        <f>IF(OR(AND($L30&lt;&gt;"",OR($J30=instellingen!$H$5,$J30=instellingen!$H$6,,$J30=instellingen!$H$7)),AND(ISBLANK($L30),OR($J30=instellingen!$H$3,$J30=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="7">
-        <f>IF(ISBLANK($M30),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X30" s="7">
-        <f>IF(AND($M30=instellingen!$I$2,AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="7">
-        <f>IF(AND($N30&lt;&gt;"",OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="7">
-        <f>IF(AND(ISBLANK($N30),$M30=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="7">
-        <f>IF(ISBLANK($O30),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="7">
-        <f>IF(AND(OR($O30=instellingen!$I$3,$O30=instellingen!$I$4),OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7">
-        <f>IF(AND($O30=instellingen!$I$2,$M30=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="7">
-        <f>IF(AND($P30&lt;&gt;"",OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="7">
-        <f>IF(AND(ISBLANK($P30),$M30=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="8">
-        <f>SUM(R30:AE30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="46"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-      <c r="R31" s="7">
-        <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="7">
-        <f>IF(AND(ISBLANK($I43),AND($H43&lt;&gt;"",$G43&lt;&gt;instellingen!$G$2),AND(ISBLANK($N43))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="7">
-        <f>IF(ISBLANK($J31),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="7">
-        <f>IF(AND($J31=instellingen!$H$2,AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="7">
-        <f>IF(OR(AND($L31&lt;&gt;"",OR($J31=instellingen!$H$5,$J31=instellingen!$H$6,,$J31=instellingen!$H$7)),AND(ISBLANK($L31),OR($J31=instellingen!$H$3,$J31=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="7">
-        <f>IF(ISBLANK($M31),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="7">
-        <f>IF(AND($M31=instellingen!$I$2,AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="7">
-        <f>IF(AND($N31&lt;&gt;"",OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="7">
-        <f>IF(AND(ISBLANK($N31),$M31=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="7">
-        <f>IF(ISBLANK($O31),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="7">
-        <f>IF(AND(OR($O31=instellingen!$I$3,$O31=instellingen!$I$4),OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="7">
-        <f>IF(AND($O31=instellingen!$I$2,$M31=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="7">
-        <f>IF(AND($P31&lt;&gt;"",OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="7">
-        <f>IF(AND(ISBLANK($P31),$M31=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="8">
-        <f>SUM(R31:AE31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="46"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-      <c r="R32" s="7">
-        <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="7">
-        <f>IF(AND(ISBLANK($I44),AND($H44&lt;&gt;"",$G44&lt;&gt;instellingen!$G$2),AND(ISBLANK($N44))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="7">
-        <f>IF(ISBLANK($J32),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="7">
-        <f>IF(AND($J32=instellingen!$H$2,AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="7">
-        <f>IF(OR(AND($L32&lt;&gt;"",OR($J32=instellingen!$H$5,$J32=instellingen!$H$6,,$J32=instellingen!$H$7)),AND(ISBLANK($L32),OR($J32=instellingen!$H$3,$J32=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="7">
-        <f>IF(ISBLANK($M32),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="7">
-        <f>IF(AND($M32=instellingen!$I$2,AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="7">
-        <f>IF(AND($N32&lt;&gt;"",OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="7">
-        <f>IF(AND(ISBLANK($N32),$M32=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="7">
-        <f>IF(ISBLANK($O32),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="7">
-        <f>IF(AND(OR($O32=instellingen!$I$3,$O32=instellingen!$I$4),OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="7">
-        <f>IF(AND($O32=instellingen!$I$2,$M32=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="7">
-        <f>IF(AND($P32&lt;&gt;"",OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="7">
-        <f>IF(AND(ISBLANK($P32),$M32=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="8">
-        <f>SUM(R32:AE32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="46"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-      <c r="R33" s="7">
-        <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="7">
-        <f>IF(AND(ISBLANK($I45),AND($H45&lt;&gt;"",$G45&lt;&gt;instellingen!$G$2),AND(ISBLANK($N45))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="7">
-        <f>IF(ISBLANK($J33),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="7">
-        <f>IF(AND($J33=instellingen!$H$2,AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="7">
-        <f>IF(OR(AND($L33&lt;&gt;"",OR($J33=instellingen!$H$5,$J33=instellingen!$H$6,,$J33=instellingen!$H$7)),AND(ISBLANK($L33),OR($J33=instellingen!$H$3,$J33=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="7">
-        <f>IF(ISBLANK($M33),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X33" s="7">
-        <f>IF(AND($M33=instellingen!$I$2,AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="7">
-        <f>IF(AND($N33&lt;&gt;"",OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="7">
-        <f>IF(AND(ISBLANK($N33),$M33=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="7">
-        <f>IF(ISBLANK($O33),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="7">
-        <f>IF(AND(OR($O33=instellingen!$I$3,$O33=instellingen!$I$4),OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="7">
-        <f>IF(AND($O33=instellingen!$I$2,$M33=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="7">
-        <f>IF(AND($P33&lt;&gt;"",OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="7">
-        <f>IF(AND(ISBLANK($P33),$M33=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="8">
-        <f>SUM(R33:AE33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-      <c r="R34" s="7">
-        <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="7">
-        <f>IF(AND(ISBLANK($I46),AND($H46&lt;&gt;"",$G46&lt;&gt;instellingen!$G$2),AND(ISBLANK($N46))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="7">
-        <f>IF(ISBLANK($J34),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="7">
-        <f>IF(AND($J34=instellingen!$H$2,AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="7">
-        <f>IF(OR(AND($L34&lt;&gt;"",OR($J34=instellingen!$H$5,$J34=instellingen!$H$6,,$J34=instellingen!$H$7)),AND(ISBLANK($L34),OR($J34=instellingen!$H$3,$J34=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="7">
-        <f>IF(ISBLANK($M34),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="7">
-        <f>IF(AND($M34=instellingen!$I$2,AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="7">
-        <f>IF(AND($N34&lt;&gt;"",OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="7">
-        <f>IF(AND(ISBLANK($N34),$M34=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="7">
-        <f>IF(ISBLANK($O34),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="7">
-        <f>IF(AND(OR($O34=instellingen!$I$3,$O34=instellingen!$I$4),OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="7">
-        <f>IF(AND($O34=instellingen!$I$2,$M34=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="7">
-        <f>IF(AND($P34&lt;&gt;"",OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="7">
-        <f>IF(AND(ISBLANK($P34),$M34=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="8">
-        <f>SUM(R34:AE34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="46"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-      <c r="R35" s="7">
-        <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="7">
-        <f>IF(AND(ISBLANK($I47),AND($H47&lt;&gt;"",$G47&lt;&gt;instellingen!$G$2),AND(ISBLANK($N47))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="7">
-        <f>IF(ISBLANK($J35),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="7">
-        <f>IF(AND($J35=instellingen!$H$2,AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="7">
-        <f>IF(OR(AND($L35&lt;&gt;"",OR($J35=instellingen!$H$5,$J35=instellingen!$H$6,,$J35=instellingen!$H$7)),AND(ISBLANK($L35),OR($J35=instellingen!$H$3,$J35=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="7">
-        <f>IF(ISBLANK($M35),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="7">
-        <f>IF(AND($M35=instellingen!$I$2,AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="7">
-        <f>IF(AND($N35&lt;&gt;"",OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="7">
-        <f>IF(AND(ISBLANK($N35),$M35=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="7">
-        <f>IF(ISBLANK($O35),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="7">
-        <f>IF(AND(OR($O35=instellingen!$I$3,$O35=instellingen!$I$4),OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="7">
-        <f>IF(AND($O35=instellingen!$I$2,$M35=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="7">
-        <f>IF(AND($P35&lt;&gt;"",OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="7">
-        <f>IF(AND(ISBLANK($P35),$M35=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="8">
-        <f>SUM(R35:AE35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32">
-      <c r="C37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="2">
-        <v>417</v>
-      </c>
-      <c r="G37" s="47" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A6 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-    </row>
-    <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6:AE35">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="21">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I18:I23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I30:I35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L18:L23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L30:L35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N6:N11">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N18:N23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N30:N35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:AF38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="42"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="43">
-        <f>SUM(AF6:AF35)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="49" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A6 (cohort 2018 - 2021)</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GDL leerlaag A4 (schooljaar 2018 - 2019)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="7" t="str">
-        <f>G5</f>
-        <v>periode</v>
-      </c>
-      <c r="S5" s="7" t="str">
-        <f>I5</f>
-        <v>weging VD</v>
-      </c>
-      <c r="T5" s="7" t="str">
-        <f>J5</f>
-        <v>soort toets</v>
-      </c>
-      <c r="U5" s="7" t="str">
-        <f>J5</f>
-        <v>soort toets</v>
-      </c>
-      <c r="V5" s="7" t="str">
-        <f>L5</f>
-        <v>duur (min)</v>
-      </c>
-      <c r="W5" s="7" t="str">
-        <f>M5</f>
-        <v>SE?</v>
-      </c>
-      <c r="X5" s="7" t="str">
-        <f>M5</f>
-        <v>SE?</v>
-      </c>
-      <c r="Y5" s="7" t="str">
-        <f>N5</f>
-        <v>weging SE</v>
-      </c>
-      <c r="Z5" s="7" t="str">
-        <f>N5</f>
-        <v>weging SE</v>
-      </c>
-      <c r="AA5" s="7" t="str">
-        <f>O5</f>
-        <v>herkans-baar?</v>
-      </c>
-      <c r="AB5" s="7" t="str">
-        <f>O5</f>
-        <v>herkans-baar?</v>
-      </c>
-      <c r="AC5" s="7" t="str">
-        <f>O5</f>
-        <v>herkans-baar?</v>
-      </c>
-      <c r="AD5" s="7" t="str">
-        <f>P5</f>
-        <v>verplichte SE-domeinen</v>
-      </c>
-      <c r="AE5" s="7" t="str">
-        <f>P5</f>
-        <v>verplichte SE-domeinen</v>
-      </c>
-      <c r="AF5" s="41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="32"/>
-      <c r="R6" s="7">
-        <f>IF(OR(AND($G6&lt;&gt;instellingen!$G$2,ISBLANK($H6)),AND($G6=instellingen!$G$2,$H6&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <f>IF(AND(ISBLANK($I18),AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2),AND(ISBLANK($N18))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <f>IF(ISBLANK($J6),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <f>IF(AND($J6=instellingen!$H$2,AND($H6&lt;&gt;"",$G6&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <f>IF(OR(AND($L6&lt;&gt;"",OR($J6=instellingen!$H$5,$J6=instellingen!$H$6,,$J6=instellingen!$H$7)),AND(ISBLANK($L6),OR($J6=instellingen!$H$3,$J6=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <f>IF(ISBLANK($M6),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <f>IF(AND($M6=instellingen!$I$2,AND($H6&lt;&gt;"",$G6&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7">
-        <f>IF(AND($N6&lt;&gt;"",OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7">
-        <f>IF(AND(ISBLANK($N6),$M6=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <f>IF(ISBLANK($O6),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
-        <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7">
-        <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
-        <f>IF(AND($P6&lt;&gt;"",OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="7">
-        <f>IF(AND(ISBLANK($P6),$M6=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="8">
-        <f>SUM(R6:AE6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2018</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="46"/>
-      <c r="O7" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P7" s="32"/>
-      <c r="R7" s="7">
-        <f>IF(OR(AND($G7&lt;&gt;instellingen!$G$2,ISBLANK($H7)),AND($G7=instellingen!$G$2,$H7&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <f>IF(AND(ISBLANK($I19),AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2),AND(ISBLANK($N19))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <f>IF(ISBLANK($J7),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <f>IF(AND($J7=instellingen!$H$2,AND($H7&lt;&gt;"",$G7&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="7">
-        <f>IF(OR(AND($L7&lt;&gt;"",OR($J7=instellingen!$H$5,$J7=instellingen!$H$6,,$J7=instellingen!$H$7)),AND(ISBLANK($L7),OR($J7=instellingen!$H$3,$J7=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <f>IF(ISBLANK($M7),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
-        <f>IF(AND($M7=instellingen!$I$2,AND($H7&lt;&gt;"",$G7&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7">
-        <f>IF(AND($N7&lt;&gt;"",OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="7">
-        <f>IF(AND(ISBLANK($N7),$M7=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="7">
-        <f>IF(ISBLANK($O7),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="7">
-        <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="7">
-        <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="7">
-        <f>IF(AND($P7&lt;&gt;"",OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="7">
-        <f>IF(AND(ISBLANK($P7),$M7=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="8">
-        <f>SUM(R7:AE7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="2">
-        <v>168</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="32"/>
-      <c r="R8" s="7">
-        <f>IF(OR(AND($G8&lt;&gt;instellingen!$G$2,ISBLANK($H8)),AND($G8=instellingen!$G$2,$H8&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <f>IF(AND(ISBLANK($I20),AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2),AND(ISBLANK($N20))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <f>IF(ISBLANK($J8),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <f>IF(AND($J8=instellingen!$H$2,AND($H8&lt;&gt;"",$G8&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="7">
-        <f>IF(OR(AND($L8&lt;&gt;"",OR($J8=instellingen!$H$5,$J8=instellingen!$H$6,,$J8=instellingen!$H$7)),AND(ISBLANK($L8),OR($J8=instellingen!$H$3,$J8=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <f>IF(ISBLANK($M8),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <f>IF(AND($M8=instellingen!$I$2,AND($H8&lt;&gt;"",$G8&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7">
-        <f>IF(AND($N8&lt;&gt;"",OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="7">
-        <f>IF(AND(ISBLANK($N8),$M8=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="7">
-        <f>IF(ISBLANK($O8),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="7">
-        <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="7">
-        <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7">
-        <f>IF(AND($P8&lt;&gt;"",OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="7">
-        <f>IF(AND(ISBLANK($P8),$M8=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="8">
-        <f>SUM(R8:AE8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="32"/>
-      <c r="R9" s="7">
-        <f>IF(OR(AND($G9&lt;&gt;instellingen!$G$2,ISBLANK($H9)),AND($G9=instellingen!$G$2,$H9&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <f>IF(AND(ISBLANK($I21),AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2),AND(ISBLANK($N21))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <f>IF(ISBLANK($J9),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <f>IF(AND($J9=instellingen!$H$2,AND($H9&lt;&gt;"",$G9&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="7">
-        <f>IF(OR(AND($L9&lt;&gt;"",OR($J9=instellingen!$H$5,$J9=instellingen!$H$6,,$J9=instellingen!$H$7)),AND(ISBLANK($L9),OR($J9=instellingen!$H$3,$J9=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="7">
-        <f>IF(ISBLANK($M9),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="7">
-        <f>IF(AND($M9=instellingen!$I$2,AND($H9&lt;&gt;"",$G9&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="7">
-        <f>IF(AND($N9&lt;&gt;"",OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7">
-        <f>IF(AND(ISBLANK($N9),$M9=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="7">
-        <f>IF(ISBLANK($O9),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="7">
-        <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="7">
-        <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <f>IF(AND($P9&lt;&gt;"",OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="7">
-        <f>IF(AND(ISBLANK($P9),$M9=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="8">
-        <f>SUM(R9:AE9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44379.602256944</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P10" s="32"/>
-      <c r="R10" s="7">
-        <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
-        <f>IF(AND(ISBLANK($I22),AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2),AND(ISBLANK($N22))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <f>IF(ISBLANK($J10),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <f>IF(AND($J10=instellingen!$H$2,AND($H10&lt;&gt;"",$G10&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="7">
-        <f>IF(OR(AND($L10&lt;&gt;"",OR($J10=instellingen!$H$5,$J10=instellingen!$H$6,,$J10=instellingen!$H$7)),AND(ISBLANK($L10),OR($J10=instellingen!$H$3,$J10=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <f>IF(ISBLANK($M10),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
-        <f>IF(AND($M10=instellingen!$I$2,AND($H10&lt;&gt;"",$G10&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7">
-        <f>IF(AND($N10&lt;&gt;"",OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="7">
-        <f>IF(AND(ISBLANK($N10),$M10=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="7">
-        <f>IF(ISBLANK($O10),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="7">
-        <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="7">
-        <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7">
-        <f>IF(AND($P10&lt;&gt;"",OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="7">
-        <f>IF(AND(ISBLANK($P10),$M10=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="8">
-        <f>SUM(R10:AE10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="46"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
-      <c r="R11" s="7">
-        <f>IF(OR(AND($G11&lt;&gt;instellingen!$G$2,ISBLANK($H11)),AND($G11=instellingen!$G$2,$H11&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <f>IF(AND(ISBLANK($I23),AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2),AND(ISBLANK($N23))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <f>IF(ISBLANK($J11),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <f>IF(AND($J11=instellingen!$H$2,AND($H11&lt;&gt;"",$G11&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="7">
-        <f>IF(OR(AND($L11&lt;&gt;"",OR($J11=instellingen!$H$5,$J11=instellingen!$H$6,,$J11=instellingen!$H$7)),AND(ISBLANK($L11),OR($J11=instellingen!$H$3,$J11=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
-        <f>IF(ISBLANK($M11),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="7">
-        <f>IF(AND($M11=instellingen!$I$2,AND($H11&lt;&gt;"",$G11&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="7">
-        <f>IF(AND($N11&lt;&gt;"",OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="7">
-        <f>IF(AND(ISBLANK($N11),$M11=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="7">
-        <f>IF(ISBLANK($O11),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="7">
-        <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="7">
-        <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="7">
-        <f>IF(AND($P11&lt;&gt;"",OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="7">
-        <f>IF(AND(ISBLANK($P11),$M11=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="8">
-        <f>SUM(R11:AE11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32">
-      <c r="A12" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-    </row>
-    <row r="13" spans="1:32">
-      <c r="A13" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>-2</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="2">
-        <v>418</v>
-      </c>
-      <c r="G13" s="47" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A4 (schooljaar 2018 - 2019)</v>
-      </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-    </row>
-    <row r="14" spans="1:32" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="7">
-        <f>B15+B11-B7</f>
-        <v>6</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="7">
-        <f>IF(B6="M",3,4)</f>
-        <v>4</v>
-      </c>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-    </row>
-    <row r="16" spans="1:32" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GDL leerlaag A5 (schooljaar 2019 - 2020)</v>
-      </c>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-    </row>
-    <row r="17" spans="1:32" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-    </row>
-    <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-      <c r="R18" s="7">
-        <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="7">
-        <f>IF(AND(ISBLANK($I30),AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2),AND(ISBLANK($N30))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="7">
-        <f>IF(ISBLANK($J18),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
-        <f>IF(AND($J18=instellingen!$H$2,AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="7">
-        <f>IF(OR(AND($L18&lt;&gt;"",OR($J18=instellingen!$H$5,$J18=instellingen!$H$6,,$J18=instellingen!$H$7)),AND(ISBLANK($L18),OR($J18=instellingen!$H$3,$J18=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="7">
-        <f>IF(ISBLANK($M18),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="7">
-        <f>IF(AND($M18=instellingen!$I$2,AND($H18&lt;&gt;"",$G18&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="7">
-        <f>IF(AND($N18&lt;&gt;"",OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="7">
-        <f>IF(AND(ISBLANK($N18),$M18=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="7">
-        <f>IF(ISBLANK($O18),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="7">
-        <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="7">
-        <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="7">
-        <f>IF(AND($P18&lt;&gt;"",OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="7">
-        <f>IF(AND(ISBLANK($P18),$M18=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="8">
-        <f>SUM(R18:AE18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="46"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-      <c r="R19" s="7">
-        <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <f>IF(AND(ISBLANK($I31),AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2),AND(ISBLANK($N31))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="7">
-        <f>IF(ISBLANK($J19),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <f>IF(AND($J19=instellingen!$H$2,AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="7">
-        <f>IF(OR(AND($L19&lt;&gt;"",OR($J19=instellingen!$H$5,$J19=instellingen!$H$6,,$J19=instellingen!$H$7)),AND(ISBLANK($L19),OR($J19=instellingen!$H$3,$J19=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <f>IF(ISBLANK($M19),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
-        <f>IF(AND($M19=instellingen!$I$2,AND($H19&lt;&gt;"",$G19&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="7">
-        <f>IF(AND($N19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="7">
-        <f>IF(AND(ISBLANK($N19),$M19=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="7">
-        <f>IF(ISBLANK($O19),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="7">
-        <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="7">
-        <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="7">
-        <f>IF(AND($P19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="7">
-        <f>IF(AND(ISBLANK($P19),$M19=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="8">
-        <f>SUM(R19:AE19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="46"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-      <c r="R20" s="7">
-        <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="7">
-        <f>IF(AND(ISBLANK($I32),AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2),AND(ISBLANK($N32))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="7">
-        <f>IF(ISBLANK($J20),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="7">
-        <f>IF(AND($J20=instellingen!$H$2,AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="7">
-        <f>IF(OR(AND($L20&lt;&gt;"",OR($J20=instellingen!$H$5,$J20=instellingen!$H$6,,$J20=instellingen!$H$7)),AND(ISBLANK($L20),OR($J20=instellingen!$H$3,$J20=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="7">
-        <f>IF(ISBLANK($M20),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="7">
-        <f>IF(AND($M20=instellingen!$I$2,AND($H20&lt;&gt;"",$G20&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="7">
-        <f>IF(AND($N20&lt;&gt;"",OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="7">
-        <f>IF(AND(ISBLANK($N20),$M20=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="7">
-        <f>IF(ISBLANK($O20),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="7">
-        <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="7">
-        <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="7">
-        <f>IF(AND($P20&lt;&gt;"",OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="7">
-        <f>IF(AND(ISBLANK($P20),$M20=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="8">
-        <f>SUM(R20:AE20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="46"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-      <c r="R21" s="7">
-        <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
-        <f>IF(AND(ISBLANK($I33),AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2),AND(ISBLANK($N33))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="7">
-        <f>IF(ISBLANK($J21),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
-        <f>IF(AND($J21=instellingen!$H$2,AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V21" s="7">
-        <f>IF(OR(AND($L21&lt;&gt;"",OR($J21=instellingen!$H$5,$J21=instellingen!$H$6,,$J21=instellingen!$H$7)),AND(ISBLANK($L21),OR($J21=instellingen!$H$3,$J21=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="7">
-        <f>IF(ISBLANK($M21),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="7">
-        <f>IF(AND($M21=instellingen!$I$2,AND($H21&lt;&gt;"",$G21&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="7">
-        <f>IF(AND($N21&lt;&gt;"",OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="7">
-        <f>IF(AND(ISBLANK($N21),$M21=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="7">
-        <f>IF(ISBLANK($O21),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="7">
-        <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="7">
-        <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="7">
-        <f>IF(AND($P21&lt;&gt;"",OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="7">
-        <f>IF(AND(ISBLANK($P21),$M21=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="8">
-        <f>SUM(R21:AE21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="46"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-      <c r="R22" s="7">
-        <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="7">
-        <f>IF(AND(ISBLANK($I34),AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2),AND(ISBLANK($N34))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="7">
-        <f>IF(ISBLANK($J22),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="7">
-        <f>IF(AND($J22=instellingen!$H$2,AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="7">
-        <f>IF(OR(AND($L22&lt;&gt;"",OR($J22=instellingen!$H$5,$J22=instellingen!$H$6,,$J22=instellingen!$H$7)),AND(ISBLANK($L22),OR($J22=instellingen!$H$3,$J22=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="7">
-        <f>IF(ISBLANK($M22),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="7">
-        <f>IF(AND($M22=instellingen!$I$2,AND($H22&lt;&gt;"",$G22&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="7">
-        <f>IF(AND($N22&lt;&gt;"",OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="7">
-        <f>IF(AND(ISBLANK($N22),$M22=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="7">
-        <f>IF(ISBLANK($O22),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="7">
-        <f>IF(AND(OR($O22=instellingen!$I$3,$O22=instellingen!$I$4),OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="7">
-        <f>IF(AND($O22=instellingen!$I$2,$M22=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="7">
-        <f>IF(AND($P22&lt;&gt;"",OR($M22=instellingen!$I$2,$M22=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="7">
-        <f>IF(AND(ISBLANK($P22),$M22=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="8">
-        <f>SUM(R22:AE22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="46"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-      <c r="R23" s="7">
-        <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="7">
-        <f>IF(AND(ISBLANK($I35),AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2),AND(ISBLANK($N35))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="7">
-        <f>IF(ISBLANK($J23),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="7">
-        <f>IF(AND($J23=instellingen!$H$2,AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V23" s="7">
-        <f>IF(OR(AND($L23&lt;&gt;"",OR($J23=instellingen!$H$5,$J23=instellingen!$H$6,,$J23=instellingen!$H$7)),AND(ISBLANK($L23),OR($J23=instellingen!$H$3,$J23=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W23" s="7">
-        <f>IF(ISBLANK($M23),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X23" s="7">
-        <f>IF(AND($M23=instellingen!$I$2,AND($H23&lt;&gt;"",$G23&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="7">
-        <f>IF(AND($N23&lt;&gt;"",OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="7">
-        <f>IF(AND(ISBLANK($N23),$M23=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="7">
-        <f>IF(ISBLANK($O23),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="7">
-        <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="7">
-        <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="7">
-        <f>IF(AND($P23&lt;&gt;"",OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="7">
-        <f>IF(AND(ISBLANK($P23),$M23=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="8">
-        <f>SUM(R23:AE23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32">
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-    </row>
-    <row r="25" spans="1:32">
-      <c r="C25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="2">
-        <v>419</v>
-      </c>
-      <c r="G25" s="47" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A5 (schooljaar 2019 - 2020)</v>
-      </c>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-    </row>
-    <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
-      <c r="AE26" s="7"/>
-    </row>
-    <row r="27" spans="1:32">
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-    </row>
-    <row r="28" spans="1:32" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GDL leerlaag A6 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
-      <c r="AE28" s="7"/>
-    </row>
-    <row r="29" spans="1:32" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
-      <c r="AE29" s="7"/>
-    </row>
-    <row r="30" spans="1:32" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="46"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-      <c r="R30" s="7">
-        <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="7">
-        <f>IF(AND(ISBLANK($I42),AND($H42&lt;&gt;"",$G42&lt;&gt;instellingen!$G$2),AND(ISBLANK($N42))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="7">
-        <f>IF(ISBLANK($J30),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="7">
-        <f>IF(AND($J30=instellingen!$H$2,AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="7">
-        <f>IF(OR(AND($L30&lt;&gt;"",OR($J30=instellingen!$H$5,$J30=instellingen!$H$6,,$J30=instellingen!$H$7)),AND(ISBLANK($L30),OR($J30=instellingen!$H$3,$J30=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="7">
-        <f>IF(ISBLANK($M30),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X30" s="7">
-        <f>IF(AND($M30=instellingen!$I$2,AND($H30&lt;&gt;"",$G30&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="7">
-        <f>IF(AND($N30&lt;&gt;"",OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="7">
-        <f>IF(AND(ISBLANK($N30),$M30=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="7">
-        <f>IF(ISBLANK($O30),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="7">
-        <f>IF(AND(OR($O30=instellingen!$I$3,$O30=instellingen!$I$4),OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="7">
-        <f>IF(AND($O30=instellingen!$I$2,$M30=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="7">
-        <f>IF(AND($P30&lt;&gt;"",OR($M30=instellingen!$I$2,$M30=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="7">
-        <f>IF(AND(ISBLANK($P30),$M30=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="8">
-        <f>SUM(R30:AE30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="46"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-      <c r="R31" s="7">
-        <f>IF(OR(AND($G31&lt;&gt;instellingen!$G$2,ISBLANK($H31)),AND($G31=instellingen!$G$2,$H31&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="7">
-        <f>IF(AND(ISBLANK($I43),AND($H43&lt;&gt;"",$G43&lt;&gt;instellingen!$G$2),AND(ISBLANK($N43))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="7">
-        <f>IF(ISBLANK($J31),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="7">
-        <f>IF(AND($J31=instellingen!$H$2,AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V31" s="7">
-        <f>IF(OR(AND($L31&lt;&gt;"",OR($J31=instellingen!$H$5,$J31=instellingen!$H$6,,$J31=instellingen!$H$7)),AND(ISBLANK($L31),OR($J31=instellingen!$H$3,$J31=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W31" s="7">
-        <f>IF(ISBLANK($M31),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X31" s="7">
-        <f>IF(AND($M31=instellingen!$I$2,AND($H31&lt;&gt;"",$G31&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="7">
-        <f>IF(AND($N31&lt;&gt;"",OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="7">
-        <f>IF(AND(ISBLANK($N31),$M31=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="7">
-        <f>IF(ISBLANK($O31),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="7">
-        <f>IF(AND(OR($O31=instellingen!$I$3,$O31=instellingen!$I$4),OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="7">
-        <f>IF(AND($O31=instellingen!$I$2,$M31=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="7">
-        <f>IF(AND($P31&lt;&gt;"",OR($M31=instellingen!$I$2,$M31=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="7">
-        <f>IF(AND(ISBLANK($P31),$M31=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="8">
-        <f>SUM(R31:AE31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="46"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-      <c r="R32" s="7">
-        <f>IF(OR(AND($G32&lt;&gt;instellingen!$G$2,ISBLANK($H32)),AND($G32=instellingen!$G$2,$H32&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="7">
-        <f>IF(AND(ISBLANK($I44),AND($H44&lt;&gt;"",$G44&lt;&gt;instellingen!$G$2),AND(ISBLANK($N44))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="7">
-        <f>IF(ISBLANK($J32),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="7">
-        <f>IF(AND($J32=instellingen!$H$2,AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="7">
-        <f>IF(OR(AND($L32&lt;&gt;"",OR($J32=instellingen!$H$5,$J32=instellingen!$H$6,,$J32=instellingen!$H$7)),AND(ISBLANK($L32),OR($J32=instellingen!$H$3,$J32=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="7">
-        <f>IF(ISBLANK($M32),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="7">
-        <f>IF(AND($M32=instellingen!$I$2,AND($H32&lt;&gt;"",$G32&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="7">
-        <f>IF(AND($N32&lt;&gt;"",OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="7">
-        <f>IF(AND(ISBLANK($N32),$M32=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="7">
-        <f>IF(ISBLANK($O32),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="7">
-        <f>IF(AND(OR($O32=instellingen!$I$3,$O32=instellingen!$I$4),OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="7">
-        <f>IF(AND($O32=instellingen!$I$2,$M32=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="7">
-        <f>IF(AND($P32&lt;&gt;"",OR($M32=instellingen!$I$2,$M32=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="7">
-        <f>IF(AND(ISBLANK($P32),$M32=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="8">
-        <f>SUM(R32:AE32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="45"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="46"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-      <c r="R33" s="7">
-        <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="7">
-        <f>IF(AND(ISBLANK($I45),AND($H45&lt;&gt;"",$G45&lt;&gt;instellingen!$G$2),AND(ISBLANK($N45))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="7">
-        <f>IF(ISBLANK($J33),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="7">
-        <f>IF(AND($J33=instellingen!$H$2,AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V33" s="7">
-        <f>IF(OR(AND($L33&lt;&gt;"",OR($J33=instellingen!$H$5,$J33=instellingen!$H$6,,$J33=instellingen!$H$7)),AND(ISBLANK($L33),OR($J33=instellingen!$H$3,$J33=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W33" s="7">
-        <f>IF(ISBLANK($M33),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X33" s="7">
-        <f>IF(AND($M33=instellingen!$I$2,AND($H33&lt;&gt;"",$G33&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="7">
-        <f>IF(AND($N33&lt;&gt;"",OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="7">
-        <f>IF(AND(ISBLANK($N33),$M33=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="7">
-        <f>IF(ISBLANK($O33),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="7">
-        <f>IF(AND(OR($O33=instellingen!$I$3,$O33=instellingen!$I$4),OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="7">
-        <f>IF(AND($O33=instellingen!$I$2,$M33=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="7">
-        <f>IF(AND($P33&lt;&gt;"",OR($M33=instellingen!$I$2,$M33=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="7">
-        <f>IF(AND(ISBLANK($P33),$M33=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="8">
-        <f>SUM(R33:AE33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="45"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="45"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="46"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-      <c r="R34" s="7">
-        <f>IF(OR(AND($G34&lt;&gt;instellingen!$G$2,ISBLANK($H34)),AND($G34=instellingen!$G$2,$H34&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="7">
-        <f>IF(AND(ISBLANK($I46),AND($H46&lt;&gt;"",$G46&lt;&gt;instellingen!$G$2),AND(ISBLANK($N46))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="7">
-        <f>IF(ISBLANK($J34),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="7">
-        <f>IF(AND($J34=instellingen!$H$2,AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="7">
-        <f>IF(OR(AND($L34&lt;&gt;"",OR($J34=instellingen!$H$5,$J34=instellingen!$H$6,,$J34=instellingen!$H$7)),AND(ISBLANK($L34),OR($J34=instellingen!$H$3,$J34=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="7">
-        <f>IF(ISBLANK($M34),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="7">
-        <f>IF(AND($M34=instellingen!$I$2,AND($H34&lt;&gt;"",$G34&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="7">
-        <f>IF(AND($N34&lt;&gt;"",OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="7">
-        <f>IF(AND(ISBLANK($N34),$M34=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="7">
-        <f>IF(ISBLANK($O34),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="7">
-        <f>IF(AND(OR($O34=instellingen!$I$3,$O34=instellingen!$I$4),OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="7">
-        <f>IF(AND($O34=instellingen!$I$2,$M34=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="7">
-        <f>IF(AND($P34&lt;&gt;"",OR($M34=instellingen!$I$2,$M34=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="7">
-        <f>IF(AND(ISBLANK($P34),$M34=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="8">
-        <f>SUM(R34:AE34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="45"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="46"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-      <c r="R35" s="7">
-        <f>IF(OR(AND($G35&lt;&gt;instellingen!$G$2,ISBLANK($H35)),AND($G35=instellingen!$G$2,$H35&lt;&gt;"")),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="7">
-        <f>IF(AND(ISBLANK($I47),AND($H47&lt;&gt;"",$G47&lt;&gt;instellingen!$G$2),AND(ISBLANK($N47))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="7">
-        <f>IF(ISBLANK($J35),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="7">
-        <f>IF(AND($J35=instellingen!$H$2,AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V35" s="7">
-        <f>IF(OR(AND($L35&lt;&gt;"",OR($J35=instellingen!$H$5,$J35=instellingen!$H$6,,$J35=instellingen!$H$7)),AND(ISBLANK($L35),OR($J35=instellingen!$H$3,$J35=instellingen!$H$4,))),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W35" s="7">
-        <f>IF(ISBLANK($M35),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X35" s="7">
-        <f>IF(AND($M35=instellingen!$I$2,AND($H35&lt;&gt;"",$G35&lt;&gt;instellingen!$G$2)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="7">
-        <f>IF(AND($N35&lt;&gt;"",OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="7">
-        <f>IF(AND(ISBLANK($N35),$M35=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="7">
-        <f>IF(ISBLANK($O35),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="7">
-        <f>IF(AND(OR($O35=instellingen!$I$3,$O35=instellingen!$I$4),OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="7">
-        <f>IF(AND($O35=instellingen!$I$2,$M35=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="7">
-        <f>IF(AND($P35&lt;&gt;"",OR($M35=instellingen!$I$2,$M35=instellingen!$I$4)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="7">
-        <f>IF(AND(ISBLANK($P35),$M35=instellingen!$I$3),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="8">
-        <f>SUM(R35:AE35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32">
-      <c r="C37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="2">
-        <v>420</v>
-      </c>
-      <c r="G37" s="47" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A6 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-    </row>
-    <row r="38" spans="1:32" customHeight="1" ht="72">
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6:AE35">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="21">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I6:I11">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I18:I23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="I30:I35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L6:L11">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L18:L23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="L30:L35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N6:N11">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N18:N23">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showDropDown="0" showInputMessage="1" showErrorMessage="1" sqref="N30:N35">
-      <formula1>0</formula1>
-      <formula2>300</formula2>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -6692,7 +2203,7 @@
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige M3 (cohort 2020 - 2021)</v>
+        <v>Dit is het programma van de huidige H3 (cohort 2021 - 2023)</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
@@ -6723,7 +2234,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GDL leerlaag M3 (schooljaar 2020 - 2021)</v>
+        <v>GDL leerlaag H4 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
@@ -6836,20 +2347,26 @@
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>684</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="45"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="45">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="45"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
@@ -6919,25 +2436,31 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2021</v>
+      </c>
+      <c r="D7" s="2">
+        <v>685</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="45"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="45">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="45"/>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
@@ -7007,25 +2530,31 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
-        <v>278</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="D8" s="2">
+        <v>686</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="45"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="45">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
@@ -7095,26 +2624,32 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>687</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="45"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="45">
+        <v>1</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="45"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
@@ -7184,11 +2719,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.60224537</v>
+        <v>44385.633298611</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7273,7 +2808,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7362,7 +2897,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7385,21 +2920,21 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>678</v>
+        <v>481</v>
       </c>
       <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag M3 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H4 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -7424,13 +2959,15 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="48" t="s">
+        <v>75</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -7454,11 +2991,11 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -7482,7 +3019,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GDL leerlaag M4 (schooljaar 2021 - 2022)</v>
+        <v>GDL leerlaag H5 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -8064,11 +3601,11 @@
         <v>47</v>
       </c>
       <c r="D25" s="2">
-        <v>679</v>
+        <v>482</v>
       </c>
       <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag M4 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H5 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -8137,7 +3674,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GDL leerlaag M5 (schooljaar 2022 - 2021)</v>
+        <v>GDL leerlaag H6 (schooljaar 2023 - 2023)</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -8705,7 +4242,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag M5 (schooljaar 2022 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H6 (schooljaar 2023 - 2023)</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
@@ -8928,7 +4465,7 @@
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige M4 (cohort 2019 - 2020)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
@@ -8959,7 +4496,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GDL leerlaag M3 (schooljaar 2019 - 2020)</v>
+        <v>GDL leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
@@ -9072,24 +4609,30 @@
       <c r="B6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>538</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="45"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="45">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="45"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9155,29 +4698,35 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>539</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="45"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="45">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="45"/>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9243,29 +4792,35 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
-        <v>163</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="D8" s="2">
+        <v>540</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="45"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="45">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9331,30 +4886,36 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2020</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>541</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="45"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="45">
+        <v>1</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="45"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9420,11 +4981,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.60224537</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9509,7 +5070,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9598,7 +5159,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9621,21 +5182,21 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag M3 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -9660,7 +5221,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9690,11 +5251,11 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
@@ -9718,7 +5279,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GDL leerlaag M4 (schooljaar 2020 - 2021)</v>
+        <v>GDL leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -10300,11 +5861,11 @@
         <v>47</v>
       </c>
       <c r="D25" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag M4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -10373,7 +5934,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GDL leerlaag M5 (schooljaar 2021 - 2020)</v>
+        <v>GDL leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -10941,7 +6502,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag M5 (schooljaar 2021 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
@@ -11160,11 +6721,11 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H3 (cohort 2021 - 2023)</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
@@ -11195,7 +6756,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GDL leerlaag H4 (schooljaar 2021 - 2022)</v>
+        <v>GDL leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
@@ -11306,32 +6867,26 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2">
-        <v>684</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="45">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="45"/>
       <c r="M6" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11376,7 +6931,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11392,40 +6947,34 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
-        <v>2021</v>
-      </c>
-      <c r="D7" s="2">
-        <v>685</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="45">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="45"/>
       <c r="M7" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11470,7 +7019,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11486,40 +7035,34 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
-        <v>194</v>
-      </c>
-      <c r="D8" s="2">
-        <v>686</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="45">
-        <v>2</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45"/>
       <c r="M8" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11564,7 +7107,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -11580,41 +7123,35 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>687</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="45">
-        <v>1</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="45"/>
       <c r="M9" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11659,7 +7196,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -11675,16 +7212,16 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11769,7 +7306,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -11858,7 +7395,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -11881,21 +7418,21 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>481</v>
+        <v>410</v>
       </c>
       <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H4 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -11920,11 +7457,11 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
@@ -11950,7 +7487,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11978,7 +7515,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GDL leerlaag H5 (schooljaar 2022 - 2023)</v>
+        <v>GDL leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -12560,11 +8097,11 @@
         <v>47</v>
       </c>
       <c r="D25" s="2">
-        <v>482</v>
+        <v>411</v>
       </c>
       <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H5 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -12633,7 +8170,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GDL leerlaag H6 (schooljaar 2023 - 2023)</v>
+        <v>GDL leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -13201,7 +8738,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H6 (schooljaar 2023 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
@@ -13420,11 +8957,11 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
+        <v>Dit is het programma van de huidige A3 (cohort 2021 - 2024)</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
@@ -13455,7 +8992,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GDL leerlaag H4 (schooljaar 2020 - 2021)</v>
+        <v>GDL leerlaag A4 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
@@ -13566,17 +9103,17 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2">
-        <v>538</v>
+        <v>692</v>
       </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -13584,14 +9121,16 @@
       <c r="J6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="30"/>
+      <c r="K6" s="30" t="s">
+        <v>79</v>
+      </c>
       <c r="L6" s="45"/>
       <c r="M6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -13636,7 +9175,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -13652,40 +9191,42 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D7" s="2">
-        <v>539</v>
+        <v>693</v>
       </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I7" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="30"/>
+      <c r="K7" s="30" t="s">
+        <v>79</v>
+      </c>
       <c r="L7" s="45"/>
       <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -13730,7 +9271,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -13746,40 +9287,42 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="D8" s="2">
-        <v>540</v>
+        <v>694</v>
       </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I8" s="45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="30"/>
+      <c r="K8" s="30" t="s">
+        <v>79</v>
+      </c>
       <c r="L8" s="45"/>
       <c r="M8" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -13824,7 +9367,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -13840,41 +9383,43 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="D9" s="2">
-        <v>541</v>
+        <v>695</v>
       </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I9" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="30"/>
+      <c r="K9" s="30" t="s">
+        <v>79</v>
+      </c>
       <c r="L9" s="45"/>
       <c r="M9" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -13919,7 +9464,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -13935,16 +9480,16 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14029,7 +9574,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14118,7 +9663,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14141,21 +9686,21 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>408</v>
+        <v>483</v>
       </c>
       <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A4 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -14180,13 +9725,15 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="48"/>
+        <v>3</v>
+      </c>
+      <c r="G14" s="48" t="s">
+        <v>75</v>
+      </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
@@ -14210,7 +9757,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14238,7 +9785,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GDL leerlaag H5 (schooljaar 2021 - 2022)</v>
+        <v>GDL leerlaag A5 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -14820,11 +10367,11 @@
         <v>47</v>
       </c>
       <c r="D25" s="2">
-        <v>409</v>
+        <v>484</v>
       </c>
       <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A5 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -14893,7 +10440,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GDL leerlaag H6 (schooljaar 2022 - 2022)</v>
+        <v>GDL leerlaag A6 (schooljaar 2023 - 2024)</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -15458,10 +11005,12 @@
       <c r="C37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>485</v>
+      </c>
       <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H6 (schooljaar 2022 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A6 (schooljaar 2023 - 2024)</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
@@ -15684,7 +11233,7 @@
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
@@ -15715,7 +11264,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GDL leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>GDL leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
@@ -15826,26 +11375,32 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D6" s="2">
+        <v>542</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="45"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="45">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="45"/>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -15911,29 +11466,35 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>543</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="45"/>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="45">
+        <v>2</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="45"/>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -15999,29 +11560,35 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
-        <v>165</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="D8" s="2">
+        <v>544</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="45"/>
+      <c r="G8" s="27">
+        <v>3</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="45">
+        <v>1</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45"/>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -16087,30 +11654,36 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>545</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="45"/>
+      <c r="G9" s="27">
+        <v>4</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="45">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="45"/>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -16176,11 +11749,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16265,7 +11838,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16354,7 +11927,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16377,21 +11950,21 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -16416,11 +11989,11 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
@@ -16446,7 +12019,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -16474,7 +12047,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GDL leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>GDL leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -16544,20 +12117,28 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>688</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="45"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="45">
+        <v>3</v>
+      </c>
       <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>86</v>
+      </c>
       <c r="L18" s="45"/>
       <c r="M18" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
@@ -16626,20 +12207,28 @@
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>689</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="45"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="45">
+        <v>2</v>
+      </c>
       <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="L19" s="45"/>
       <c r="M19" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
@@ -16708,20 +12297,28 @@
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>690</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="45"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="45">
+        <v>2</v>
+      </c>
       <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="L20" s="45"/>
       <c r="M20" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
@@ -16790,20 +12387,28 @@
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>691</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="45"/>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="45">
+        <v>1</v>
+      </c>
       <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
+        <v>19</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>92</v>
+      </c>
       <c r="L21" s="45"/>
       <c r="M21" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
@@ -17056,11 +12661,11 @@
         <v>47</v>
       </c>
       <c r="D25" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -17084,7 +12689,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>75</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -17129,7 +12736,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GDL leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>GDL leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -17694,10 +13301,12 @@
       <c r="C37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>414</v>
+      </c>
       <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
@@ -17916,11 +13525,11 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A3 (cohort 2021 - 2024)</v>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
@@ -17951,7 +13560,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GDL leerlaag A4 (schooljaar 2021 - 2022)</v>
+        <v>GDL leerlaag A4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
@@ -18062,32 +13671,26 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2">
-        <v>692</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="45">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="45"/>
       <c r="M6" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18132,7 +13735,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -18148,40 +13751,34 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
-        <v>2021</v>
-      </c>
-      <c r="D7" s="2">
-        <v>693</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="45">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="45"/>
       <c r="M7" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18226,7 +13823,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -18242,40 +13839,34 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
-        <v>195</v>
-      </c>
-      <c r="D8" s="2">
-        <v>694</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="45">
-        <v>1</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45"/>
       <c r="M8" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18320,7 +13911,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -18336,41 +13927,35 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2024</v>
-      </c>
-      <c r="D9" s="2">
-        <v>695</v>
-      </c>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="45">
-        <v>2</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="45"/>
       <c r="M9" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -18415,7 +14000,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -18431,16 +14016,16 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -18525,7 +14110,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -18614,7 +14199,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -18637,21 +14222,21 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>483</v>
+        <v>415</v>
       </c>
       <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A4 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -18676,11 +14261,11 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
@@ -18706,7 +14291,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -18734,7 +14319,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GDL leerlaag A5 (schooljaar 2022 - 2023)</v>
+        <v>GDL leerlaag A5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -18804,24 +14389,30 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>546</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="45"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" s="45">
+        <v>3</v>
+      </c>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="45"/>
       <c r="M18" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -18886,24 +14477,30 @@
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>547</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="45"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="45">
+        <v>2</v>
+      </c>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="45"/>
       <c r="M19" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -18968,24 +14565,30 @@
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>548</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="45"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="45">
+        <v>2</v>
+      </c>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="45"/>
       <c r="M20" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -19050,24 +14653,30 @@
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>549</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="45"/>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="45">
+        <v>1</v>
+      </c>
       <c r="J21" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="45"/>
       <c r="M21" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -19316,11 +14925,11 @@
         <v>47</v>
       </c>
       <c r="D25" s="2">
-        <v>484</v>
+        <v>416</v>
       </c>
       <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A5 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -19344,7 +14953,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>75</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -19389,7 +15000,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GDL leerlaag A6 (schooljaar 2023 - 2024)</v>
+        <v>GDL leerlaag A6 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -19955,11 +15566,11 @@
         <v>47</v>
       </c>
       <c r="D37" s="2">
-        <v>485</v>
+        <v>417</v>
       </c>
       <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A6 (schooljaar 2023 - 2024)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A6 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
@@ -20178,11 +15789,11 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>Dit is het programma van de huidige A6 (cohort 2018 - 2021)</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
@@ -20213,7 +15824,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15," (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>GDL leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>GDL leerlaag A4 (schooljaar 2018 - 2019)</v>
       </c>
     </row>
     <row r="5" spans="1:32" customHeight="1" ht="34.5">
@@ -20324,32 +15935,26 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="2">
-        <v>542</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="45">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="45"/>
       <c r="J6" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="45"/>
       <c r="M6" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20394,7 +15999,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -20410,40 +16015,34 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>543</v>
-      </c>
+        <v>2018</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>2</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="45">
-        <v>2</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="45"/>
       <c r="J7" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="45"/>
       <c r="M7" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -20488,7 +16087,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -20504,40 +16103,34 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2">
-        <v>166</v>
-      </c>
-      <c r="D8" s="2">
-        <v>544</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>3</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="45">
-        <v>1</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="45"/>
       <c r="M8" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -20582,7 +16175,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -20598,41 +16191,35 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>545</v>
-      </c>
+        <v>2021</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>4</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="45">
-        <v>2</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="45"/>
       <c r="M9" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -20677,7 +16264,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -20693,16 +16280,16 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602256944</v>
+        <v>44385.633310185</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20787,7 +16374,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -20876,7 +16463,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -20899,21 +16486,21 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="G13" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A4 (schooljaar 2018 - 2019)</v>
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="47"/>
@@ -20938,11 +16525,11 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
@@ -20968,7 +16555,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -20996,7 +16583,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+1," (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>GDL leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>GDL leerlaag A5 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
@@ -21066,34 +16653,26 @@
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>688</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="45">
-        <v>3</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="45"/>
       <c r="M18" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="32" t="s">
-        <v>82</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -21136,7 +16715,7 @@
       </c>
       <c r="AB18" s="7">
         <f>IF(AND(OR($O18=instellingen!$I$3,$O18=instellingen!$I$4),OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="7">
         <f>IF(AND($O18=instellingen!$I$2,$M18=instellingen!$I$3),1,0)</f>
@@ -21144,7 +16723,7 @@
       </c>
       <c r="AD18" s="7">
         <f>IF(AND($P18&lt;&gt;"",OR($M18=instellingen!$I$2,$M18=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="7">
         <f>IF(AND(ISBLANK($P18),$M18=instellingen!$I$3),1,0)</f>
@@ -21152,38 +16731,30 @@
       </c>
       <c r="AF18" s="8">
         <f>SUM(R18:AE18)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:32" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>689</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="45">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="45"/>
       <c r="M19" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="32" t="s">
-        <v>82</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -21226,7 +16797,7 @@
       </c>
       <c r="AB19" s="7">
         <f>IF(AND(OR($O19=instellingen!$I$3,$O19=instellingen!$I$4),OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="7">
         <f>IF(AND($O19=instellingen!$I$2,$M19=instellingen!$I$3),1,0)</f>
@@ -21234,7 +16805,7 @@
       </c>
       <c r="AD19" s="7">
         <f>IF(AND($P19&lt;&gt;"",OR($M19=instellingen!$I$2,$M19=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="7">
         <f>IF(AND(ISBLANK($P19),$M19=instellingen!$I$3),1,0)</f>
@@ -21242,38 +16813,30 @@
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>690</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="45">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
       <c r="L20" s="45"/>
       <c r="M20" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="32" t="s">
-        <v>82</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -21316,7 +16879,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -21324,7 +16887,7 @@
       </c>
       <c r="AD20" s="7">
         <f>IF(AND($P20&lt;&gt;"",OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="7">
         <f>IF(AND(ISBLANK($P20),$M20=instellingen!$I$3),1,0)</f>
@@ -21332,38 +16895,30 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>691</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="45">
-        <v>1</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
       <c r="L21" s="45"/>
       <c r="M21" s="27" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P21" s="32" t="s">
-        <v>82</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
       <c r="R21" s="7">
         <f>IF(OR(AND($G21&lt;&gt;instellingen!$G$2,ISBLANK($H21)),AND($G21=instellingen!$G$2,$H21&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -21406,7 +16961,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -21414,7 +16969,7 @@
       </c>
       <c r="AD21" s="7">
         <f>IF(AND($P21&lt;&gt;"",OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="7">
         <f>IF(AND(ISBLANK($P21),$M21=instellingen!$I$3),1,0)</f>
@@ -21422,7 +16977,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -21610,11 +17165,11 @@
         <v>47</v>
       </c>
       <c r="D25" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G25" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A5 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
@@ -21683,7 +17238,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,B15+2," (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>GDL leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>GDL leerlaag A6 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
@@ -22249,11 +17804,11 @@
         <v>47</v>
       </c>
       <c r="D37" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G37" s="47" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  GDL leerlaag A6 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/GDL_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/GDL_OPEN.xlsx
@@ -888,6 +888,9 @@
     <t>Maakbaarheid van het leven gerelateerd aan de wereldreligies.</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>startJaar</t>
   </si>
   <si>
@@ -925,9 +928,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>A</t>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2436,7 +2436,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2449,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2530,7 +2530,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>194</v>
@@ -2543,7 +2543,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2624,7 +2624,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2638,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2719,11 +2719,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633298611</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2959,14 +2959,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4698,7 +4698,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4711,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4792,7 +4792,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>164</v>
@@ -4805,7 +4805,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4886,7 +4886,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4900,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>1</v>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -4981,11 +4981,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>165</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7217,11 +7217,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7395,7 +7395,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7418,7 +7418,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7457,7 +7457,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9196,7 +9196,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9226,7 +9226,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9292,7 +9292,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>195</v>
@@ -9322,7 +9322,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9388,7 +9388,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9485,11 +9485,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9574,7 +9574,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9663,7 +9663,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9686,7 +9686,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9725,14 +9725,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>3</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11400,7 +11400,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11466,7 +11466,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11494,7 +11494,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11560,7 +11560,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>166</v>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11654,7 +11654,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11749,11 +11749,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11838,7 +11838,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -11950,7 +11950,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -11989,7 +11989,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -12019,7 +12019,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12142,7 +12142,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -12690,7 +12690,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -13756,7 +13756,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>167</v>
@@ -13932,7 +13932,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14021,11 +14021,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14110,7 +14110,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14199,7 +14199,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14222,7 +14222,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14261,7 +14261,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14291,7 +14291,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14412,7 +14412,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14500,7 +14500,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -14676,7 +14676,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -14954,7 +14954,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -16020,7 +16020,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16108,7 +16108,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>168</v>
@@ -16196,7 +16196,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16285,11 +16285,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633310185</v>
+        <v>44387.766030093</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16374,7 +16374,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16463,7 +16463,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16486,7 +16486,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16525,7 +16525,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16555,7 +16555,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
